--- a/output/Q4B.xlsx
+++ b/output/Q4B.xlsx
@@ -738,7 +738,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>104.23927847</v>
+        <v>104.23927846999999</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
@@ -802,7 +802,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>64.01347703268426</v>
+        <v>64.01347703268425</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
@@ -818,7 +818,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>56.74671693777778</v>
+        <v>56.74671693777777</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
@@ -826,7 +826,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>56.03336879500002</v>
+        <v>56.03336879500003</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
@@ -834,7 +834,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>53.527796886626085</v>
+        <v>53.5277968866261</v>
       </c>
       <c r="B15" t="s">
         <v>15</v>
@@ -850,7 +850,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>49.11</v>
+        <v>49.11000000000001</v>
       </c>
       <c r="B17" t="s">
         <v>17</v>
@@ -858,7 +858,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>47.31725125611111</v>
+        <v>47.317251256111106</v>
       </c>
       <c r="B18" t="s">
         <v>18</v>
@@ -922,7 +922,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>36.8</v>
+        <v>36.800000000000004</v>
       </c>
       <c r="B26" t="s">
         <v>26</v>
@@ -930,7 +930,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>36.219023893673274</v>
+        <v>36.21902389367331</v>
       </c>
       <c r="B27" t="s">
         <v>27</v>
@@ -938,7 +938,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>35.59621054</v>
+        <v>35.59621054000001</v>
       </c>
       <c r="B28" t="s">
         <v>28</v>
@@ -954,7 +954,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30">
-        <v>34.8</v>
+        <v>34.800000000000004</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
@@ -970,7 +970,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A32">
-        <v>33.42204441762766</v>
+        <v>33.42204441762765</v>
       </c>
       <c r="B32" t="s">
         <v>32</v>
@@ -994,7 +994,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35">
-        <v>32.24224824000001</v>
+        <v>32.242248240000016</v>
       </c>
       <c r="B35" t="s">
         <v>35</v>
@@ -1018,7 +1018,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38">
-        <v>29.962061980769228</v>
+        <v>29.96206198076924</v>
       </c>
       <c r="B38" t="s">
         <v>38</v>
@@ -1026,7 +1026,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>28.870578568363634</v>
+        <v>28.87057856836363</v>
       </c>
       <c r="B39" t="s">
         <v>39</v>
@@ -1034,7 +1034,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40">
-        <v>28.559495890689654</v>
+        <v>28.559495890689657</v>
       </c>
       <c r="B40" t="s">
         <v>40</v>
@@ -1050,7 +1050,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>26.07308599606077</v>
+        <v>26.073085996060772</v>
       </c>
       <c r="B42" t="s">
         <v>42</v>
@@ -1058,7 +1058,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>25.44774227</v>
+        <v>25.447742269999996</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -1066,7 +1066,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>25.378006007333315</v>
+        <v>25.378006007333312</v>
       </c>
       <c r="B44" t="s">
         <v>44</v>
@@ -1074,7 +1074,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>25.00769215692306</v>
+        <v>25.007692156923053</v>
       </c>
       <c r="B45" t="s">
         <v>45</v>
@@ -1082,7 +1082,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>24.25052658336165</v>
+        <v>24.250526583361648</v>
       </c>
       <c r="B46" t="s">
         <v>46</v>
@@ -1090,7 +1090,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>24.196780624675217</v>
+        <v>24.19678062467521</v>
       </c>
       <c r="B47" t="s">
         <v>47</v>
@@ -1098,7 +1098,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>23.791715436</v>
+        <v>23.791715436000004</v>
       </c>
       <c r="B48" t="s">
         <v>48</v>
@@ -1106,7 +1106,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>23.689655173333332</v>
+        <v>23.68965517333333</v>
       </c>
       <c r="B49" t="s">
         <v>49</v>
@@ -1130,7 +1130,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>21.967003411200004</v>
+        <v>21.9670034112</v>
       </c>
       <c r="B52" t="s">
         <v>52</v>
@@ -1162,7 +1162,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>21.3590241721739</v>
+        <v>21.359024172173896</v>
       </c>
       <c r="B56" t="s">
         <v>56</v>
@@ -1170,7 +1170,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>20.163296516666666</v>
+        <v>20.16329651666667</v>
       </c>
       <c r="B57" t="s">
         <v>57</v>
@@ -1178,7 +1178,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>19.727653167068947</v>
+        <v>19.727653167068933</v>
       </c>
       <c r="B58" t="s">
         <v>58</v>
@@ -1194,7 +1194,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>18.851338428960943</v>
+        <v>18.851338428960954</v>
       </c>
       <c r="B60" t="s">
         <v>60</v>
@@ -1210,7 +1210,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>18.4</v>
+        <v>18.400000000000002</v>
       </c>
       <c r="B62" t="s">
         <v>62</v>
@@ -1226,7 +1226,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>17.937555091142872</v>
+        <v>17.937555091142865</v>
       </c>
       <c r="B64" t="s">
         <v>64</v>
@@ -1242,7 +1242,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>17.154903836454544</v>
+        <v>17.154903836454547</v>
       </c>
       <c r="B66" t="s">
         <v>66</v>
@@ -1250,7 +1250,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>17.11440845194367</v>
+        <v>17.114408451943675</v>
       </c>
       <c r="B67" t="s">
         <v>67</v>
@@ -1274,7 +1274,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A70">
-        <v>16.898529197811936</v>
+        <v>16.898529197811918</v>
       </c>
       <c r="B70" t="s">
         <v>70</v>
@@ -1282,7 +1282,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A71">
-        <v>16.308581236000034</v>
+        <v>16.308581236000045</v>
       </c>
       <c r="B71" t="s">
         <v>71</v>
@@ -1290,7 +1290,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A72">
-        <v>16.183604445000007</v>
+        <v>16.183604445000004</v>
       </c>
       <c r="B72" t="s">
         <v>72</v>
@@ -1314,7 +1314,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A75">
-        <v>15.49789051884559</v>
+        <v>15.497890518845567</v>
       </c>
       <c r="B75" t="s">
         <v>75</v>
@@ -1322,7 +1322,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A76">
-        <v>15.141224572500004</v>
+        <v>15.141224572500006</v>
       </c>
       <c r="B76" t="s">
         <v>76</v>
@@ -1338,7 +1338,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A78">
-        <v>14.347233302425007</v>
+        <v>14.347233302425009</v>
       </c>
       <c r="B78" t="s">
         <v>78</v>
@@ -1362,7 +1362,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A81">
-        <v>13.452670134482792</v>
+        <v>13.452670134482803</v>
       </c>
       <c r="B81" t="s">
         <v>81</v>
@@ -1370,7 +1370,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82">
-        <v>13.36978581025941</v>
+        <v>13.369785810259398</v>
       </c>
       <c r="B82" t="s">
         <v>82</v>
@@ -1378,7 +1378,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83">
-        <v>13.044169425459192</v>
+        <v>13.044169425459165</v>
       </c>
       <c r="B83" t="s">
         <v>83</v>
@@ -1386,7 +1386,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84">
-        <v>12.883860701428565</v>
+        <v>12.883860701428569</v>
       </c>
       <c r="B84" t="s">
         <v>84</v>
@@ -1394,7 +1394,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85">
-        <v>12.794996527386376</v>
+        <v>12.794996527386413</v>
       </c>
       <c r="B85" t="s">
         <v>85</v>
@@ -1402,7 +1402,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86">
-        <v>12.77238769995954</v>
+        <v>12.77238769995956</v>
       </c>
       <c r="B86" t="s">
         <v>86</v>
@@ -1418,7 +1418,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88">
-        <v>12.44930777</v>
+        <v>12.449307770000003</v>
       </c>
       <c r="B88" t="s">
         <v>88</v>
@@ -1426,7 +1426,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89">
-        <v>12.445693552990695</v>
+        <v>12.445693552990699</v>
       </c>
       <c r="B89" t="s">
         <v>89</v>
@@ -1434,7 +1434,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90">
-        <v>12.129673974666664</v>
+        <v>12.129673974666662</v>
       </c>
       <c r="B90" t="s">
         <v>90</v>
@@ -1458,7 +1458,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93">
-        <v>11.1238158</v>
+        <v>11.123815800000001</v>
       </c>
       <c r="B93" t="s">
         <v>93</v>
@@ -1474,7 +1474,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95">
-        <v>9.571677598387755</v>
+        <v>9.571677598387758</v>
       </c>
       <c r="B95" t="s">
         <v>95</v>
@@ -1490,7 +1490,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97">
-        <v>9.381493442440437</v>
+        <v>9.381493442440433</v>
       </c>
       <c r="B97" t="s">
         <v>97</v>
@@ -1498,7 +1498,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98">
-        <v>8.897254620523809</v>
+        <v>8.897254620523812</v>
       </c>
       <c r="B98" t="s">
         <v>98</v>
@@ -1506,7 +1506,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99">
-        <v>8.49036152438805</v>
+        <v>8.490361524388048</v>
       </c>
       <c r="B99" t="s">
         <v>99</v>
@@ -1514,7 +1514,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100">
-        <v>8.181859256740971</v>
+        <v>8.181859256740962</v>
       </c>
       <c r="B100" t="s">
         <v>100</v>
@@ -1554,7 +1554,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105">
-        <v>7.550036591825756</v>
+        <v>7.550036591825755</v>
       </c>
       <c r="B105" t="s">
         <v>105</v>
@@ -1562,7 +1562,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106">
-        <v>6.937209170765439</v>
+        <v>6.937209170765444</v>
       </c>
       <c r="B106" t="s">
         <v>106</v>
@@ -1570,7 +1570,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107">
-        <v>6.657538265922324</v>
+        <v>6.65753826592232</v>
       </c>
       <c r="B107" t="s">
         <v>107</v>
@@ -1578,7 +1578,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108">
-        <v>6.274100267857143</v>
+        <v>6.274100267857144</v>
       </c>
       <c r="B108" t="s">
         <v>108</v>
@@ -1586,7 +1586,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109">
-        <v>6.163995935453783</v>
+        <v>6.163995935453787</v>
       </c>
       <c r="B109" t="s">
         <v>109</v>
